--- a/other/cat_toml/dice_setting/response_link/sealdice_m522.xlsx
+++ b/other/cat_toml/dice_setting/response_link/sealdice_m522.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/other/cat_toml/dice_setting/response_link/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8333F670-90D1-4C11-9FD1-FC82DB4A1C8E}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7AC488A-D78C-4669-BA44-6EF11E458DBB}"/>
   <bookViews>
-    <workbookView xWindow="2736" yWindow="3012" windowWidth="12792" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="2928" windowWidth="12792" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>0）</t>
   </si>
@@ -87,21 +87,9 @@
     <t>4）</t>
   </si>
   <si>
-    <t>续费/费用？</t>
-  </si>
-  <si>
-    <t>4.1）</t>
-  </si>
-  <si>
     <t>续费通知？</t>
   </si>
   <si>
-    <t>一个遗憾的消息是目前所使用的服务器近期涨价，月租自25年5月起将会从原本的费用涨至11~13/月</t>
-  </si>
-  <si>
-    <t>4.2）</t>
-  </si>
-  <si>
     <t>自年前起内置连接便逐渐开始无法使用，就算连个八百遍都不定能连上去，分离部署暂且行得通，手机端正在内测的1.5版本支持内置连接但电脑端暂时无对应版本，其次内置长时间无法连接会一直吃CPU直到吃满，吃满会导致服务器崩溃</t>
   </si>
   <si>
@@ -117,14 +105,46 @@
     <t>不想续租？</t>
   </si>
   <si>
-    <t>跑团万能群：867760710、744931498
-跑团有偿群：222738449、562741740、1004239913</t>
-  </si>
-  <si>
-    <t>4.3）</t>
-  </si>
-  <si>
     <t>想找新的代挂？</t>
+  </si>
+  <si>
+    <t>跑团万能群：867760710、744931498</t>
+  </si>
+  <si>
+    <t>跑团有偿群：222738449、562741740、1004239913</t>
+  </si>
+  <si>
+    <t>费用？</t>
+  </si>
+  <si>
+    <t>如何续费？</t>
+  </si>
+  <si>
+    <t>文件大小？</t>
+  </si>
+  <si>
+    <t>5.1）</t>
+  </si>
+  <si>
+    <t>5.2）</t>
+  </si>
+  <si>
+    <t>5.3）</t>
+  </si>
+  <si>
+    <t>5.4）</t>
+  </si>
+  <si>
+    <t>请尽量控制在600mb左右及以内</t>
+  </si>
+  <si>
+    <t>5）</t>
+  </si>
+  <si>
+    <t>一个遗憾的消息是目前所使用的服务器自二月份起涨价，月租将会从原本的费用涨至每个核心11~13/月</t>
+  </si>
+  <si>
+    <t>为了方便续服务器，大家整体讨论个续到x月，然后付相应的费用</t>
   </si>
 </sst>
 </file>
@@ -180,6 +200,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D30"/>
+  <dimension ref="B2:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -471,7 +495,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -509,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -577,34 +601,34 @@
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -612,10 +636,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -623,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -631,18 +655,64 @@
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
